--- a/public/fh.xlsx
+++ b/public/fh.xlsx
@@ -123,7 +123,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -238,8 +238,10 @@
           <t>1/1</t>
         </is>
       </c>
-      <c r="G6" s="7" t="n">
-        <v>1</v>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="H6" s="7" t="n">
         <v>1.0</v>
@@ -260,154 +262,114 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="n">
-        <v>2961002394</v>
+        <v>2961002419</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>ORTJ000053</t>
+          <t>ORTJ000054</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>MTR-003CLD</t>
+          <t>MTR-003CUD</t>
         </is>
       </c>
       <c r="F7" s="7" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="n">
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>新品替换</t>
+        </is>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>总箱数：</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>新品替换</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="n">
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>合计：</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>2961002419</v>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>ORTJ000053</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>MTR-003CLD</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I8" s="7" t="inlineStr">
-        <is>
-          <t>新品替换</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="8"/>
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>收货人：</t>
+        </is>
+      </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>总箱数：</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>合计：</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>3</v>
-      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>收货人：</t>
+          <t>日期：</t>
         </is>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>日期：</t>
+        </is>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>日期：</t>
-        </is>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>日期：</t>
-        </is>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="10">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:J9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
